--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/99.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/99.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1090473652155086</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.623711225675004</v>
+        <v>-1.584574636598196</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1111573372411668</v>
+        <v>0.04686849970227501</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08639446969923466</v>
+        <v>-0.1003598296887764</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1104093659611599</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.698340123793711</v>
+        <v>-1.692667836960531</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07238284009090452</v>
+        <v>0.01717696172555571</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0615429911438777</v>
+        <v>-0.08629226633287106</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.124497826648037</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.83003573156963</v>
+        <v>-1.789314990314187</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09938788958035182</v>
+        <v>0.03192198739564266</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.176277950271756</v>
+        <v>-0.1391518474161296</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1573965081787771</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.994815299061495</v>
+        <v>-1.973614670757455</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07620086584863077</v>
+        <v>0.08215348191526553</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1447730325661281</v>
+        <v>-0.1582521965413972</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2048551312774291</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.096165267315968</v>
+        <v>-2.066379556237385</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07469847636308571</v>
+        <v>0.1499960765074291</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.137386649274221</v>
+        <v>-0.16135771883076</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2491598488287937</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.892044704014568</v>
+        <v>-1.968422739746184</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1994201644327795</v>
+        <v>0.2615306102200355</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1660532334911224</v>
+        <v>-0.1853696697338444</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2670631847763394</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.611528584404462</v>
+        <v>-1.738348361580791</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1954254728560533</v>
+        <v>0.3456688015548312</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1776007538421193</v>
+        <v>-0.1743127255413929</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2395751213227892</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.202839223037753</v>
+        <v>-1.325277395893266</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3259362516062001</v>
+        <v>0.3930137809987275</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1528397982683986</v>
+        <v>-0.1655086355532134</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1529016231332989</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7437300209476945</v>
+        <v>-0.8366241206836695</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3165452222854753</v>
+        <v>0.3926604493607276</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1243703205437699</v>
+        <v>-0.1181183946184989</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>6.614423743897873e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1882459644729346</v>
+        <v>-0.2361954038264672</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2248191610222272</v>
+        <v>0.3050166825596602</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.09622351344723203</v>
+        <v>-0.08480301728014418</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2163752133248882</v>
       </c>
       <c r="E12" t="n">
-        <v>0.60379070354658</v>
+        <v>0.4632333338828905</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06021726747733259</v>
+        <v>0.1069903599897134</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04583186555772983</v>
+        <v>0.01329177375564766</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4807780320865084</v>
       </c>
       <c r="E13" t="n">
-        <v>1.126052825760803</v>
+        <v>1.146156227924525</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3427716142223476</v>
+        <v>-0.1829211690853906</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2213135855559555</v>
+        <v>0.1227939205257092</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.7732680051903119</v>
       </c>
       <c r="E14" t="n">
-        <v>1.861779819058242</v>
+        <v>1.90658869496823</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8628407442040261</v>
+        <v>-0.5763617881906485</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2262485481032268</v>
+        <v>0.2434785756240404</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.075649814164283</v>
       </c>
       <c r="E15" t="n">
-        <v>2.670618720507934</v>
+        <v>2.671033374165752</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.248427764628286</v>
+        <v>-0.9642191833962717</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4606081674154366</v>
+        <v>0.3895374064942739</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.374916280670036</v>
       </c>
       <c r="E16" t="n">
-        <v>3.384764742973652</v>
+        <v>3.300937541882219</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.723766861296886</v>
+        <v>-1.382841251925432</v>
       </c>
       <c r="G16" t="n">
-        <v>0.644121611961751</v>
+        <v>0.5346004845665077</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.664964115952456</v>
       </c>
       <c r="E17" t="n">
-        <v>4.091141849547643</v>
+        <v>3.926804676627324</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.006748272108492</v>
+        <v>-1.754229304665605</v>
       </c>
       <c r="G17" t="n">
-        <v>0.792555941075893</v>
+        <v>0.6742029827787429</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.937415007830354</v>
       </c>
       <c r="E18" t="n">
-        <v>4.647658160022676</v>
+        <v>4.465038264907998</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.501402344971722</v>
+        <v>-2.093604342964514</v>
       </c>
       <c r="G18" t="n">
-        <v>1.0017341109642</v>
+        <v>0.8739054405570529</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.183774254723498</v>
       </c>
       <c r="E19" t="n">
-        <v>5.104755415843463</v>
+        <v>4.903112554152335</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.802958487595869</v>
+        <v>-2.474121346393094</v>
       </c>
       <c r="G19" t="n">
-        <v>1.146753387593707</v>
+        <v>1.043009670494189</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.404736895604277</v>
       </c>
       <c r="E20" t="n">
-        <v>5.374820511218845</v>
+        <v>5.30707427980068</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.117939042391875</v>
+        <v>-2.812554653673366</v>
       </c>
       <c r="G20" t="n">
-        <v>1.341934076434473</v>
+        <v>1.207786317889872</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.60081403116296</v>
       </c>
       <c r="E21" t="n">
-        <v>5.775819799290737</v>
+        <v>5.628848438363685</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.455836512022784</v>
+        <v>-3.096926030267517</v>
       </c>
       <c r="G21" t="n">
-        <v>1.513599230723063</v>
+        <v>1.320741478394933</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.770616464838314</v>
       </c>
       <c r="E22" t="n">
-        <v>6.095253500764015</v>
+        <v>5.895120328798886</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.697850433451583</v>
+        <v>-3.408077608945115</v>
       </c>
       <c r="G22" t="n">
-        <v>1.565509780547231</v>
+        <v>1.429091647221268</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.912744153729595</v>
       </c>
       <c r="E23" t="n">
-        <v>6.113020825982282</v>
+        <v>6.014762509560309</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.913049111642752</v>
+        <v>-3.632882673550419</v>
       </c>
       <c r="G23" t="n">
-        <v>1.682802743930381</v>
+        <v>1.53610441199633</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.026367330846727</v>
       </c>
       <c r="E24" t="n">
-        <v>6.243036648429611</v>
+        <v>6.100668819133195</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.125332803820423</v>
+        <v>-3.831587918482638</v>
       </c>
       <c r="G24" t="n">
-        <v>1.805687691501712</v>
+        <v>1.651616116708571</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.10961854533369</v>
       </c>
       <c r="E25" t="n">
-        <v>6.174418768301175</v>
+        <v>6.119278592099917</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.304501145248193</v>
+        <v>-3.923227836908523</v>
       </c>
       <c r="G25" t="n">
-        <v>1.766486860308904</v>
+        <v>1.671966266999657</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.160592068034955</v>
       </c>
       <c r="E26" t="n">
-        <v>6.059374278978024</v>
+        <v>6.02826065416076</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.308824347645373</v>
+        <v>-4.0070316772305</v>
       </c>
       <c r="G26" t="n">
-        <v>1.711825579881464</v>
+        <v>1.682326768252745</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.182659591165009</v>
       </c>
       <c r="E27" t="n">
-        <v>5.900350221060521</v>
+        <v>5.881771109103708</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.309345584813828</v>
+        <v>-4.053717444961351</v>
       </c>
       <c r="G27" t="n">
-        <v>1.74329545643291</v>
+        <v>1.693299029655924</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.176037775715765</v>
       </c>
       <c r="E28" t="n">
-        <v>5.880024891586982</v>
+        <v>5.777802544598191</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.26052814687025</v>
+        <v>-4.017444740214861</v>
       </c>
       <c r="G28" t="n">
-        <v>1.714246339616191</v>
+        <v>1.659241947887387</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.1387392119602</v>
       </c>
       <c r="E29" t="n">
-        <v>5.607267467531964</v>
+        <v>5.516553219595715</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.226537497289851</v>
+        <v>-3.999593462231366</v>
       </c>
       <c r="G29" t="n">
-        <v>1.646549749833118</v>
+        <v>1.605878650212766</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.071649154795255</v>
       </c>
       <c r="E30" t="n">
-        <v>5.524424338853804</v>
+        <v>5.373065533413572</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.241064245770346</v>
+        <v>-3.933147403638156</v>
       </c>
       <c r="G30" t="n">
-        <v>1.677153817866655</v>
+        <v>1.561277101131687</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.974329059100985</v>
       </c>
       <c r="E31" t="n">
-        <v>5.265721337721874</v>
+        <v>5.107106093269826</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.195261807134495</v>
+        <v>-3.807921998977099</v>
       </c>
       <c r="G31" t="n">
-        <v>1.490948044640706</v>
+        <v>1.429091647221268</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.844966873995443</v>
       </c>
       <c r="E32" t="n">
-        <v>4.912886116072878</v>
+        <v>4.824754693209447</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.030912953829448</v>
+        <v>-3.631300711443919</v>
       </c>
       <c r="G32" t="n">
-        <v>1.411962363018727</v>
+        <v>1.314416550065116</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.688001376936868</v>
       </c>
       <c r="E33" t="n">
-        <v>4.664841466004581</v>
+        <v>4.519023543069347</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.914679985360298</v>
+        <v>-3.432650948339155</v>
       </c>
       <c r="G33" t="n">
-        <v>1.446406357531354</v>
+        <v>1.241301721816682</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.509022713427245</v>
       </c>
       <c r="E34" t="n">
-        <v>4.35962425279248</v>
+        <v>4.155687655550535</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.783107021624015</v>
+        <v>-3.264952014689518</v>
       </c>
       <c r="G34" t="n">
-        <v>1.357765377884196</v>
+        <v>1.144399790071162</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.31318251293726</v>
       </c>
       <c r="E35" t="n">
-        <v>3.987897468895217</v>
+        <v>3.806268946434265</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.705390851817081</v>
+        <v>-3.10566368806756</v>
       </c>
       <c r="G35" t="n">
-        <v>1.331250904553294</v>
+        <v>1.058051085926731</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.105853196489277</v>
       </c>
       <c r="E36" t="n">
-        <v>3.717093589185835</v>
+        <v>3.464302322773994</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.536458177530626</v>
+        <v>-2.97746927561364</v>
       </c>
       <c r="G36" t="n">
-        <v>1.18062796335088</v>
+        <v>0.9341660054131277</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.894302059122162</v>
       </c>
       <c r="E37" t="n">
-        <v>3.346788892129116</v>
+        <v>3.089597040771276</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.439243795493653</v>
+        <v>-2.84443918388263</v>
       </c>
       <c r="G37" t="n">
-        <v>1.079369248102089</v>
+        <v>0.8304675498044283</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.682723293947729</v>
       </c>
       <c r="E38" t="n">
-        <v>3.083018064073642</v>
+        <v>2.741765403929824</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.260246279692519</v>
+        <v>-2.709676015067712</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9627479068407564</v>
+        <v>0.7408308173592705</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.472807237170156</v>
       </c>
       <c r="E39" t="n">
-        <v>2.681726766383568</v>
+        <v>2.40512941584946</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.12992530719419</v>
+        <v>-2.60002786348856</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8769452606823248</v>
+        <v>0.6636424549372003</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.269767772670153</v>
       </c>
       <c r="E40" t="n">
-        <v>2.330923931677116</v>
+        <v>2.141711919431985</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.020348697971492</v>
+        <v>-2.477364113203002</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7795074912874419</v>
+        <v>0.5624786428143184</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.075188154448666</v>
       </c>
       <c r="E41" t="n">
-        <v>2.064146864602461</v>
+        <v>1.900476933659686</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.890428508674118</v>
+        <v>-2.387293746474844</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6927820947355561</v>
+        <v>0.4924211552682463</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8895244589061857</v>
       </c>
       <c r="E42" t="n">
-        <v>1.675863135354292</v>
+        <v>1.624111730772033</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.730633545364615</v>
+        <v>-2.299017778850413</v>
       </c>
       <c r="G42" t="n">
-        <v>0.635710274910026</v>
+        <v>0.4313020821347172</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7158114701163354</v>
       </c>
       <c r="E43" t="n">
-        <v>1.547811077589236</v>
+        <v>1.42840542461854</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.699691476198033</v>
+        <v>-2.236599262915976</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5430585431571417</v>
+        <v>0.349156856444012</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5560943625610539</v>
       </c>
       <c r="E44" t="n">
-        <v>1.307490081921846</v>
+        <v>1.224181197902686</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.641185889147231</v>
+        <v>-2.194065871955669</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4650788346697991</v>
+        <v>0.310329797562477</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.410761939445873</v>
       </c>
       <c r="E45" t="n">
-        <v>1.117486723611442</v>
+        <v>1.063221116216639</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.52100860076049</v>
+        <v>-2.102220086748966</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3964755550222721</v>
+        <v>0.221944326331228</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2805435378506181</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8660226409142369</v>
+        <v>0.8761568347132341</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.501911171731404</v>
+        <v>-2.057925877791023</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4313050022308991</v>
+        <v>0.209247748132686</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1657248241256087</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4944112008161549</v>
+        <v>0.6243321201375744</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.464970494983323</v>
+        <v>-1.980943382149771</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3363901959371063</v>
+        <v>0.1654974070886068</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.0651718335015937</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3708750717962789</v>
+        <v>0.5099811536576052</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.372146477555712</v>
+        <v>-1.910282164718109</v>
       </c>
       <c r="G48" t="n">
-        <v>0.263425752642035</v>
+        <v>0.1158484717572565</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.023066996998777</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1434652813967945</v>
+        <v>0.3560030219422829</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.316629608946999</v>
+        <v>-1.820066523204906</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2034206962018693</v>
+        <v>0.07508976925144925</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1002550044532758</v>
       </c>
       <c r="E50" t="n">
-        <v>0.05381686856690951</v>
+        <v>0.2601990463611268</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.179857413958991</v>
+        <v>-1.759688424477513</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1152586123285294</v>
+        <v>0.02913767568627977</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1692584649790141</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.01339352520189063</v>
+        <v>0.1388953308722503</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.139692221002138</v>
+        <v>-1.710343179149071</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1276602608127079</v>
+        <v>-0.01742179788470773</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2329659029434588</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.08446866626732609</v>
+        <v>0.06600535002981532</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.035308272814757</v>
+        <v>-1.649405151978815</v>
       </c>
       <c r="G52" t="n">
-        <v>0.08726073013726417</v>
+        <v>-0.03476716920470307</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2931834845727167</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2318751215254683</v>
+        <v>-0.01731375432598048</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.963981273453639</v>
+        <v>-1.590730199349467</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04304463375218513</v>
+        <v>-0.09092061878105162</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3522277294370453</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1082061281293197</v>
+        <v>-0.05394344083069792</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.970094494810274</v>
+        <v>-1.572175908210199</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.04814266976551766</v>
+        <v>-0.1250667634831334</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.410717133688778</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3163505839692638</v>
+        <v>-0.1708874527201211</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.971556732973319</v>
+        <v>-1.574815675158562</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08329478760223549</v>
+        <v>-0.1510468592127628</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4687789954057144</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3812117603597919</v>
+        <v>-0.2296908895814689</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.868356883787665</v>
+        <v>-1.537305579655027</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.09314135192732376</v>
+        <v>-0.1956819893999326</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.5260022218607368</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3679545236943409</v>
+        <v>-0.2994957888078138</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.839036198026037</v>
+        <v>-1.541501757868299</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1113131104667734</v>
+        <v>-0.1879116134601165</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5815886628918525</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3738793988472484</v>
+        <v>-0.3270103950809882</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.831206690138539</v>
+        <v>-1.55697680758384</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1662576402238496</v>
+        <v>-0.269348715826731</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.6358868328922469</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4696512533704045</v>
+        <v>-0.3898640053465168</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.78098906607578</v>
+        <v>-1.572681084849654</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2043532150118393</v>
+        <v>-0.3103045248248109</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6893096421769878</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3899311675586986</v>
+        <v>-0.4253314935708709</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.765791425497511</v>
+        <v>-1.598047960381102</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1893731215991161</v>
+        <v>-0.3261869279577157</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.7413613326674705</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.512868676861302</v>
+        <v>-0.5017460305047595</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.806754534736045</v>
+        <v>-1.609185207218553</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3048935865999033</v>
+        <v>-0.3844355465445183</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.791782452570304</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6391934977348135</v>
+        <v>-0.6304463496221795</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.758889778171786</v>
+        <v>-1.654216010438359</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3238493909641709</v>
+        <v>-0.4092651243785116</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.8410815213503219</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6816589964588931</v>
+        <v>-0.7281980293566078</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.898709823549566</v>
+        <v>-1.724711512411704</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3878155578749719</v>
+        <v>-0.4315936398327783</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.888894728846455</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7628931521408712</v>
+        <v>-0.8511705798133929</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.906416687397428</v>
+        <v>-1.731548917621429</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4372411058484132</v>
+        <v>-0.4742036833178578</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.933913372648404</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8657272592797527</v>
+        <v>-0.912496979775831</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.836756332932083</v>
+        <v>-1.731836547095338</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5092156365378484</v>
+        <v>-0.496333632231761</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.9761131968548957</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9739066024794509</v>
+        <v>-0.976704054621632</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.008649254722855</v>
+        <v>-1.842876124505127</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5062079374705765</v>
+        <v>-0.5088112032166667</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.014822460847869</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.999396122050535</v>
+        <v>-1.022275075635074</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.003163124021266</v>
+        <v>-1.888554459053251</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5077468281583942</v>
+        <v>-0.5136249817723927</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.048252149733542</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9858439556707204</v>
+        <v>-1.092334023229237</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.086555960805652</v>
+        <v>-1.945460563420463</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5756741055398306</v>
+        <v>-0.547921511427838</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.076565473084735</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9711529517799971</v>
+        <v>-1.093744429685055</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.121393438278779</v>
+        <v>-2.006583286674219</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5291233922573885</v>
+        <v>-0.5564481922787448</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.09964685994264</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.035595094368434</v>
+        <v>-1.121383140045957</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.231010198823977</v>
+        <v>-2.065202757476112</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5803550197192838</v>
+        <v>-0.5626621569536522</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.116171028187847</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.059338396422792</v>
+        <v>-1.088006440687784</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.364189945484305</v>
+        <v>-2.117784929422098</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7128500038249755</v>
+        <v>-0.6119621407912753</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.126001959358308</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.073384059057333</v>
+        <v>-1.061843838946791</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.478515361122683</v>
+        <v>-2.166387740296313</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6321823468022699</v>
+        <v>-0.6032398134961868</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.129105919666811</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9744847815234507</v>
+        <v>-0.9745548638318143</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.488011513905954</v>
+        <v>-2.164399154796495</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7109665417877034</v>
+        <v>-0.6440642181660849</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.124396636227108</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9800198238360857</v>
+        <v>-0.9043104901301059</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.510083790920266</v>
+        <v>-2.171945413354357</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7688238674861423</v>
+        <v>-0.6397205750956315</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.110543454109526</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7850406216318653</v>
+        <v>-0.739868193747241</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.532143657525805</v>
+        <v>-2.142448791797773</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.783125038536593</v>
+        <v>-0.6224540463725453</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.087707945051622</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7360998096246056</v>
+        <v>-0.5984274949885517</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.414865294623564</v>
+        <v>-2.087239993336243</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7616842323215988</v>
+        <v>-0.5967980813190976</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.05511599830656</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5575125673370173</v>
+        <v>-0.4303350783784151</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.485601704531909</v>
+        <v>-2.092047931699605</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6561753170801726</v>
+        <v>-0.5724663798841041</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.012203142367097</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.3555922965086169</v>
+        <v>-0.2753714142017294</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.398691611896523</v>
+        <v>-2.054331969415252</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6798616772589844</v>
+        <v>-0.5797271990401931</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.9605015770093839</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1713108666664846</v>
+        <v>-0.07399428126314708</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.376635395411211</v>
+        <v>-2.026423150157532</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5887926376366452</v>
+        <v>-0.5048106714475769</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.9011267216941</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01033809646773937</v>
+        <v>0.1171975561932561</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.307361953689957</v>
+        <v>-1.990914780586632</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5410257042944763</v>
+        <v>-0.4777589004192205</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.8346195247984646</v>
       </c>
       <c r="E81" t="n">
-        <v>0.137620708888887</v>
+        <v>0.2954650479489355</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.191945152103624</v>
+        <v>-1.933373555299875</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4409145868451395</v>
+        <v>-0.3848078588077</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.7628992530587442</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3824430328205485</v>
+        <v>0.5135801722016952</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.108988139674373</v>
+        <v>-1.871760255887573</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3891865430323352</v>
+        <v>-0.3138816426475372</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6873738491486669</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6154053861097587</v>
+        <v>0.7535332357501762</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.055819028395842</v>
+        <v>-1.792897948329276</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3659002360304323</v>
+        <v>-0.2714219841158214</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.6088231010908043</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9978445428500197</v>
+        <v>1.042130721543462</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.00436693367222</v>
+        <v>-1.759085424615967</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3275652133555335</v>
+        <v>-0.2218226904195619</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5288084851063618</v>
       </c>
       <c r="E85" t="n">
-        <v>1.128727633863348</v>
+        <v>1.230663811426321</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.831419857159811</v>
+        <v>-1.706752920893527</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3120872435438104</v>
+        <v>-0.1923910410030244</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.449987150294643</v>
       </c>
       <c r="E86" t="n">
-        <v>1.452030462777534</v>
+        <v>1.465956401468621</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.842995118424536</v>
+        <v>-1.639110352889818</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2239791814498341</v>
+        <v>-0.1286103001997688</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3742367474854766</v>
       </c>
       <c r="E87" t="n">
-        <v>1.685137360827744</v>
+        <v>1.683005690615017</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.719198370820433</v>
+        <v>-1.570444291174382</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1724891254758479</v>
+        <v>-0.05852653178806033</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.3036053328494976</v>
       </c>
       <c r="E88" t="n">
-        <v>1.858272783543879</v>
+        <v>1.842635668490247</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.537655991196845</v>
+        <v>-1.462349630763956</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.160989786711851</v>
+        <v>-0.05362369029878891</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.241803919866808</v>
       </c>
       <c r="E89" t="n">
-        <v>2.075016922639276</v>
+        <v>1.982644060071755</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.473879630537862</v>
+        <v>-1.361858900810983</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.04588105527270008</v>
+        <v>0.02165784931655451</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1915189664039606</v>
       </c>
       <c r="E90" t="n">
-        <v>2.244510985416685</v>
+        <v>2.102795797616905</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.249981255797013</v>
+        <v>-1.182819043615213</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.01608585388152627</v>
+        <v>0.07005552343399606</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1539942755120014</v>
       </c>
       <c r="E91" t="n">
-        <v>2.309680231954395</v>
+        <v>2.135635199277623</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.058945643486337</v>
+        <v>-1.007490628666533</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01503507117619265</v>
+        <v>0.09022608780989973</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1313102554453207</v>
       </c>
       <c r="E92" t="n">
-        <v>2.305102981189396</v>
+        <v>2.112851148818993</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8933338485826543</v>
+        <v>-0.8363788326043969</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01665864465328312</v>
+        <v>0.1062209146458045</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1236975977462084</v>
       </c>
       <c r="E93" t="n">
-        <v>2.340459505758841</v>
+        <v>2.118622718922355</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6569038810775361</v>
+        <v>-0.6340190873006331</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01975540665410047</v>
+        <v>0.08786226995071855</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1298804041621103</v>
       </c>
       <c r="E94" t="n">
-        <v>2.30160616601167</v>
+        <v>2.069813311243277</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.535735950061114</v>
+        <v>-0.4729217610940399</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02562580810752371</v>
+        <v>0.07817777096372115</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1489923468594309</v>
       </c>
       <c r="E95" t="n">
-        <v>2.233639467331779</v>
+        <v>1.987476819252663</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.3472554219095282</v>
+        <v>-0.2892389509691802</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01898258929388913</v>
+        <v>0.04959586953609246</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1788956444463436</v>
       </c>
       <c r="E96" t="n">
-        <v>2.084714562059091</v>
+        <v>1.857475597286243</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1814333800807546</v>
+        <v>-0.1726409704773024</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.000247252191348701</v>
+        <v>0.00334300606419579</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2162922714296653</v>
       </c>
       <c r="E97" t="n">
-        <v>1.954971768604763</v>
+        <v>1.729641086686732</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.07018209569778447</v>
+        <v>-0.08498844338768959</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0601004636300599</v>
+        <v>-0.01267956168543627</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2565451307672886</v>
       </c>
       <c r="E98" t="n">
-        <v>1.80518689500653</v>
+        <v>1.583056638503772</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0416794887871855</v>
+        <v>-0.0205901022419796</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04569416911706377</v>
+        <v>-0.0342517722286123</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2955318424088881</v>
       </c>
       <c r="E99" t="n">
-        <v>1.596851172866677</v>
+        <v>1.419674337034906</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08767100365080951</v>
+        <v>0.02444070097782649</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1105597256518645</v>
+        <v>-0.06292273658978642</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3287192841550131</v>
       </c>
       <c r="E100" t="n">
-        <v>1.472050642200074</v>
+        <v>1.290051267524032</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2033024323065057</v>
+        <v>0.06829762553254198</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1604816899762148</v>
+        <v>-0.08809396567705238</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3525372791434601</v>
       </c>
       <c r="E101" t="n">
-        <v>1.310159049832027</v>
+        <v>1.122996945106532</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2236365220685912</v>
+        <v>0.0754854422840855</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04956621665415364</v>
+        <v>-0.06635238955533095</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3660757139462992</v>
       </c>
       <c r="E102" t="n">
-        <v>1.179388382521698</v>
+        <v>1.009399363441471</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2015328540203244</v>
+        <v>0.0760709215685399</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1648078124695772</v>
+        <v>-0.1077724938463198</v>
       </c>
     </row>
   </sheetData>
